--- a/src/test/resources/excelImport/teststudy.xlsx
+++ b/src/test/resources/excelImport/teststudy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t xml:space="preserve">Study Information</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasting plasma glucose (mmol/L) change</t>
   </si>
   <si>
     <t xml:space="preserve">HbA1c (%) change</t>
@@ -272,15 +269,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ6" activeCellId="0" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,12 +326,6 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M2" s="1" t="s">
@@ -368,190 +359,164 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="W3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="Z3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="AA3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="0" t="s">
+      <c r="AB3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="0" t="s">
+      <c r="AH3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="AJ3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>123</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>51</v>
@@ -563,13 +528,13 @@
         <v>11</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>34</v>
@@ -578,64 +543,46 @@
         <v>17</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="AA4" s="0" t="n">
         <v>47</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM4" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="0" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ4" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +597,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -680,38 +627,26 @@
         <v>50</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="0" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="0" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="AN5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="0" t="n">
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="0" t="n">
         <v>42</v>
-      </c>
-      <c r="AQ5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,11 +661,20 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
+      <c r="P6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -740,22 +684,18 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AO6" s="1"/>
+      <c r="AI6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="31">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:AQ1"/>
+    <mergeCell ref="M1:AK1"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AD2:AK2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -778,10 +718,7 @@
     <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="AE4:AE6"/>
     <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="AI4:AI6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" location="/users/1/datasets/cool-uuid-thing/versions/a665cc37-1428-4dac-9a39-f813e24308cb/studies/1bdb76d6-06e2-4a0e-b393-6f8b15ed1e0f%23baselineCharacteristics" display="http://localhost:8090/#/users/1/datasets/cool-uuid-thing/versions/a665cc37-1428-4dac-9a39-f813e24308cb/studies/1bdb76d6-06e2-4a0e-b393-6f8b15ed1e0f#baselineCharacteristics"/>
